--- a/biology/Botanique/Jasminum_noumeense/Jasminum_noumeense.xlsx
+++ b/biology/Botanique/Jasminum_noumeense/Jasminum_noumeense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jasminum noumeense est une espèce endémique de Nouvelle-Calédonie appartenant à la famille des Oleaceae. Elle est considérée comme vulnérable (VU) par l'UICN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jasminum noumeense est une espèce endémique de Nouvelle-Calédonie appartenant à la famille des Oleaceae. Elle est considérée comme vulnérable (VU) par l'UICN.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasminum magentae Guillaumin désigne la même espèce.
 </t>
@@ -544,14 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-La plante a un aspect lianescent mais peut également former des buissons bas[2].
-Feuilles
-Les feuilles sont simples, opposées.
-Fleurs
-Les fleurs sont blanches et très odorantes. Le calice a des lobes importants et est finement pubescent[2].
-Fruits
-Les fruits sont des baies bilobées[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a un aspect lianescent mais peut également former des buissons bas.
 </t>
         </is>
       </c>
@@ -577,15 +590,128 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, opposées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches et très odorantes. Le calice a des lobes importants et est finement pubescent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des baies bilobées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasminum_noumeense</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On trouve cette espèce sur la côte ouest de la Grande Terre en Nouvelle-Calédonie, dans trois zones :
 entre Koné et Bourail
 dans le Grand Nouméa
-sur la pointe Sud[1].</t>
+sur la pointe Sud.</t>
         </is>
       </c>
     </row>
